--- a/data/data_raw/eurostat/AT_lorries_road_eqr_lormot.xlsx
+++ b/data/data_raw/eurostat/AT_lorries_road_eqr_lormot.xlsx
@@ -1019,12 +1019,24 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5</v>
+      </c>
       <c r="M10" t="n">
         <v>12</v>
       </c>
@@ -1067,12 +1079,24 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>107</v>
+      </c>
+      <c r="H11" t="n">
+        <v>112</v>
+      </c>
+      <c r="I11" t="n">
+        <v>88</v>
+      </c>
+      <c r="J11" t="n">
+        <v>50</v>
+      </c>
+      <c r="K11" t="n">
+        <v>59</v>
+      </c>
+      <c r="L11" t="n">
+        <v>75</v>
+      </c>
       <c r="M11" t="n">
         <v>63</v>
       </c>

--- a/data/data_raw/eurostat/AT_lorries_road_eqr_lormot.xlsx
+++ b/data/data_raw/eurostat/AT_lorries_road_eqr_lormot.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>VG_GT3P5</t>
+          <t>LOR_GT3P5</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>VG_GT3P5</t>
+          <t>LOR_GT3P5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>VG_GT3P5</t>
+          <t>LOR_GT3P5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>VG_GT3P5</t>
+          <t>LOR_GT3P5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>VG_GT3P5</t>
+          <t>LOR_GT3P5</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>VG_GT3P5</t>
+          <t>LOR_GT3P5</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>VG_GT3P5</t>
+          <t>LOR_GT3P5</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>VG_GT3P5</t>
+          <t>LOR_GT3P5</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>VG_GT3P5</t>
+          <t>LOR_GT3P5</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>VG_GT3P5</t>
+          <t>LOR_GT3P5</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>VG_GT3P5</t>
+          <t>LOR_GT3P5</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>VG_GT3P5</t>
+          <t>LOR_GT3P5</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>VG_GT3P5</t>
+          <t>LOR_GT3P5</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>VG_GT3P5</t>
+          <t>LOR_GT3P5</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>VG_GT3P5</t>
+          <t>LOR_GT3P5</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>VG_GT3P5</t>
+          <t>LOR_GT3P5</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">

--- a/data/data_raw/eurostat/AT_lorries_road_eqr_lormot.xlsx
+++ b/data/data_raw/eurostat/AT_lorries_road_eqr_lormot.xlsx
@@ -1011,7 +1011,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Natural Gas [GAS]</t>
+          <t>Natural gas [GAS]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Natural Gas [GAS]</t>
+          <t>Natural gas [GAS]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">

--- a/data/data_raw/eurostat/AT_lorries_road_eqr_lormot.xlsx
+++ b/data/data_raw/eurostat/AT_lorries_road_eqr_lormot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,11 @@
           <t>2022</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -568,6 +573,9 @@
       </c>
       <c r="P2" t="n">
         <v>3131</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3772</v>
       </c>
     </row>
     <row r="3">
@@ -629,6 +637,9 @@
       <c r="P3" t="n">
         <v>22069</v>
       </c>
+      <c r="Q3" t="n">
+        <v>30702</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -689,6 +700,9 @@
       <c r="P4" t="n">
         <v>1</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -749,6 +763,9 @@
       <c r="P5" t="n">
         <v>1267</v>
       </c>
+      <c r="Q5" t="n">
+        <v>1939</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -809,6 +826,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -869,6 +889,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -929,6 +952,9 @@
       <c r="P8" t="n">
         <v>3064</v>
       </c>
+      <c r="Q8" t="n">
+        <v>3719</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -989,6 +1015,9 @@
       <c r="P9" t="n">
         <v>18671</v>
       </c>
+      <c r="Q9" t="n">
+        <v>25480</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1049,6 +1078,9 @@
       <c r="P10" t="n">
         <v>8</v>
       </c>
+      <c r="Q10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1109,6 +1141,9 @@
       <c r="P11" t="n">
         <v>49</v>
       </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1169,6 +1204,9 @@
       <c r="P12" t="n">
         <v>57</v>
       </c>
+      <c r="Q12" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1229,6 +1267,9 @@
       <c r="P13" t="n">
         <v>2067</v>
       </c>
+      <c r="Q13" t="n">
+        <v>3265</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1251,7 +1292,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Alternative Energy [ALT]</t>
+          <t>Alternative energy [ALT]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1288,6 +1329,9 @@
       </c>
       <c r="P14" t="n">
         <v>66</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="15">
@@ -1311,7 +1355,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Alternative Energy [ALT]</t>
+          <t>Alternative energy [ALT]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1348,6 +1392,9 @@
       </c>
       <c r="P15" t="n">
         <v>2131</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3283</v>
       </c>
     </row>
     <row r="16">
@@ -1409,6 +1456,9 @@
       <c r="P16" t="n">
         <v>1</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1469,6 +1519,9 @@
       <c r="P17" t="n">
         <v>1255</v>
       </c>
+      <c r="Q17" t="n">
+        <v>1934</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1529,6 +1582,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1589,6 +1645,9 @@
       <c r="P19" t="n">
         <v>12</v>
       </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1649,6 +1708,9 @@
       <c r="P20" t="n">
         <v>3064</v>
       </c>
+      <c r="Q20" t="n">
+        <v>3719</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1709,6 +1771,9 @@
       <c r="P21" t="n">
         <v>18399</v>
       </c>
+      <c r="Q21" t="n">
+        <v>25123</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1769,6 +1834,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1828,6 +1896,9 @@
       </c>
       <c r="P23" t="n">
         <v>272</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>357</v>
       </c>
     </row>
     <row r="24">
@@ -1877,6 +1948,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1925,6 +1999,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1973,6 +2050,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2021,6 +2101,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2073,6 +2156,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2125,6 +2209,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2165,6 +2250,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2205,6 +2291,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2265,6 +2352,9 @@
       <c r="P32" t="n">
         <v>1</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2324,6 +2414,9 @@
       </c>
       <c r="P33" t="n">
         <v>15</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
